--- a/data/hotels_by_city/Houston/Houston_shard_658.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_658.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d8806112-Reviews-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Towneplace-Suites-By-Marriott-Houston-Galleria-Area.h11966080.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,761 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r588076987-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8806112</t>
+  </si>
+  <si>
+    <t>588076987</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Not bad but room for improvement</t>
+  </si>
+  <si>
+    <t>I was recommended this property by a colleague, who had stayed for an extended period.  Normally, I choose Courtyard for business trips to Houston.  First impressions were good; friendly and efficient check-in process, bright and fresh decor.  The King Studio was of a reasonable size and offered plenty of storage space. The bathroom was a little on the small side, but provided everything I needed.  I found the bed to be comfortable and of usual Marriott quality.
+My two main criticisms of the room are that the housekeeping service was lacking and the AC unit was too noisy.  Housekeeping did not come in to the room one of the days.  The bathroom floor was not thoroughly cleaned most days.  The used bathroom amenities were taken away some days but not always replenished.  
+The complimentary breakfast was a nice touch.  There was a decent enough choice (more on week days vs weekends) although it did become a little repetitive.  The quality was okay, although I believe most of it was microwave-reheated.  This area is only serviced at breakfast - there is no food or drinks available at other times of the day, which would have been good. Walmart however is just across the parking lot, and there are facilities in the rooms to prepare your own food.
+There are plenty of free parking spaces, and access to 59/69 and 610 is good.  I did not use the Fitness Center, Pool, or...I was recommended this property by a colleague, who had stayed for an extended period.  Normally, I choose Courtyard for business trips to Houston.  First impressions were good; friendly and efficient check-in process, bright and fresh decor.  The King Studio was of a reasonable size and offered plenty of storage space. The bathroom was a little on the small side, but provided everything I needed.  I found the bed to be comfortable and of usual Marriott quality.My two main criticisms of the room are that the housekeeping service was lacking and the AC unit was too noisy.  Housekeeping did not come in to the room one of the days.  The bathroom floor was not thoroughly cleaned most days.  The used bathroom amenities were taken away some days but not always replenished.  The complimentary breakfast was a nice touch.  There was a decent enough choice (more on week days vs weekends) although it did become a little repetitive.  The quality was okay, although I believe most of it was microwave-reheated.  This area is only serviced at breakfast - there is no food or drinks available at other times of the day, which would have been good. Walmart however is just across the parking lot, and there are facilities in the rooms to prepare your own food.There are plenty of free parking spaces, and access to 59/69 and 610 is good.  I did not use the Fitness Center, Pool, or outdoor grill area, but they all looked to be in line with the standard of property.Only other drawback I could see is that the Reward Point earning rate is about half of what I am used to at Courtyard, yet the room rate was slightly more than what I usually pay there, so I did not feel like it was very good value for Rewards members.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Marisol R, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>I was recommended this property by a colleague, who had stayed for an extended period.  Normally, I choose Courtyard for business trips to Houston.  First impressions were good; friendly and efficient check-in process, bright and fresh decor.  The King Studio was of a reasonable size and offered plenty of storage space. The bathroom was a little on the small side, but provided everything I needed.  I found the bed to be comfortable and of usual Marriott quality.
+My two main criticisms of the room are that the housekeeping service was lacking and the AC unit was too noisy.  Housekeeping did not come in to the room one of the days.  The bathroom floor was not thoroughly cleaned most days.  The used bathroom amenities were taken away some days but not always replenished.  
+The complimentary breakfast was a nice touch.  There was a decent enough choice (more on week days vs weekends) although it did become a little repetitive.  The quality was okay, although I believe most of it was microwave-reheated.  This area is only serviced at breakfast - there is no food or drinks available at other times of the day, which would have been good. Walmart however is just across the parking lot, and there are facilities in the rooms to prepare your own food.
+There are plenty of free parking spaces, and access to 59/69 and 610 is good.  I did not use the Fitness Center, Pool, or...I was recommended this property by a colleague, who had stayed for an extended period.  Normally, I choose Courtyard for business trips to Houston.  First impressions were good; friendly and efficient check-in process, bright and fresh decor.  The King Studio was of a reasonable size and offered plenty of storage space. The bathroom was a little on the small side, but provided everything I needed.  I found the bed to be comfortable and of usual Marriott quality.My two main criticisms of the room are that the housekeeping service was lacking and the AC unit was too noisy.  Housekeeping did not come in to the room one of the days.  The bathroom floor was not thoroughly cleaned most days.  The used bathroom amenities were taken away some days but not always replenished.  The complimentary breakfast was a nice touch.  There was a decent enough choice (more on week days vs weekends) although it did become a little repetitive.  The quality was okay, although I believe most of it was microwave-reheated.  This area is only serviced at breakfast - there is no food or drinks available at other times of the day, which would have been good. Walmart however is just across the parking lot, and there are facilities in the rooms to prepare your own food.There are plenty of free parking spaces, and access to 59/69 and 610 is good.  I did not use the Fitness Center, Pool, or outdoor grill area, but they all looked to be in line with the standard of property.Only other drawback I could see is that the Reward Point earning rate is about half of what I am used to at Courtyard, yet the room rate was slightly more than what I usually pay there, so I did not feel like it was very good value for Rewards members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r583193690-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583193690</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Good hotel - Carla on reception makes it great!</t>
+  </si>
+  <si>
+    <t>Ok so it’s not a five star hotel and was never meant to be.
+For its level and rating I score it very good 
+Check in was quick and efficient
+With sing song Carla on the desk... yes I’m the lady with the triplets Carla in case you’re reading this!
+Ok so check in was good
+I was upgraded and Carla engaged me pleasantly in conversation.
+I’m Marriott platt and I did not have to request or beg it was done as I arrived instantly
+That was a good start.
+Carla reeled out all the amenities etc of the hotel I wasn’t listening but thought that was nice.
+My stay was uneventful.
+I noticed we were surrounded by fast foods and  wallmart and sams club etc which was useful.
+There was a small pool but it was exposed to the road???
+I don’t see who is going to use that ?
+Certainly not I!
+The breakfast was standard for that level of hotel but well presented.
+Everything in the suite was working efficiently and I was not rushed to leave.
+I asked reception staff to freeze some liquids for me to put in my hand luggage the next morning to enable me take it through customs.
+This was when Carla was off.
+They put it in the fridge instead so I was upset as that meant I would have to pay to check it in.
+They offered to credit me...Ok so it’s not a five star hotel and was never meant to be.For its level and rating I score it very good Check in was quick and efficientWith sing song Carla on the desk... yes I’m the lady with the triplets Carla in case you’re reading this!Ok so check in was goodI was upgraded and Carla engaged me pleasantly in conversation.I’m Marriott platt and I did not have to request or beg it was done as I arrived instantlyThat was a good start.Carla reeled out all the amenities etc of the hotel I wasn’t listening but thought that was nice.My stay was uneventful.I noticed we were surrounded by fast foods and  wallmart and sams club etc which was useful.There was a small pool but it was exposed to the road???I don’t see who is going to use that ?Certainly not I!The breakfast was standard for that level of hotel but well presented.Everything in the suite was working efficiently and I was not rushed to leave.I asked reception staff to freeze some liquids for me to put in my hand luggage the next morning to enable me take it through customs.This was when Carla was off.They put it in the fridge instead so I was upset as that meant I would have to pay to check it in.They offered to credit me with 5000 points.Aside from that I had no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ok so it’s not a five star hotel and was never meant to be.
+For its level and rating I score it very good 
+Check in was quick and efficient
+With sing song Carla on the desk... yes I’m the lady with the triplets Carla in case you’re reading this!
+Ok so check in was good
+I was upgraded and Carla engaged me pleasantly in conversation.
+I’m Marriott platt and I did not have to request or beg it was done as I arrived instantly
+That was a good start.
+Carla reeled out all the amenities etc of the hotel I wasn’t listening but thought that was nice.
+My stay was uneventful.
+I noticed we were surrounded by fast foods and  wallmart and sams club etc which was useful.
+There was a small pool but it was exposed to the road???
+I don’t see who is going to use that ?
+Certainly not I!
+The breakfast was standard for that level of hotel but well presented.
+Everything in the suite was working efficiently and I was not rushed to leave.
+I asked reception staff to freeze some liquids for me to put in my hand luggage the next morning to enable me take it through customs.
+This was when Carla was off.
+They put it in the fridge instead so I was upset as that meant I would have to pay to check it in.
+They offered to credit me...Ok so it’s not a five star hotel and was never meant to be.For its level and rating I score it very good Check in was quick and efficientWith sing song Carla on the desk... yes I’m the lady with the triplets Carla in case you’re reading this!Ok so check in was goodI was upgraded and Carla engaged me pleasantly in conversation.I’m Marriott platt and I did not have to request or beg it was done as I arrived instantlyThat was a good start.Carla reeled out all the amenities etc of the hotel I wasn’t listening but thought that was nice.My stay was uneventful.I noticed we were surrounded by fast foods and  wallmart and sams club etc which was useful.There was a small pool but it was exposed to the road???I don’t see who is going to use that ?Certainly not I!The breakfast was standard for that level of hotel but well presented.Everything in the suite was working efficiently and I was not rushed to leave.I asked reception staff to freeze some liquids for me to put in my hand luggage the next morning to enable me take it through customs.This was when Carla was off.They put it in the fridge instead so I was upset as that meant I would have to pay to check it in.They offered to credit me with 5000 points.Aside from that I had no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r549854229-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549854229</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Very considerate staff...Comfortable, well planned room</t>
+  </si>
+  <si>
+    <t>We've stayed in several Marriott Towne Place Suites in the last year, all with the same design; closet and desk/table/workspace designed by the Container Store--this can be a lifesaver if you're trying to get a kid to work on his class project or do some work yourself. 
+The design provides electric connections/charging ports throughout the room; the wifi is flawless. 
+My son enjoyed the 'usuals'; eggs, sausage, bagels, fresh fruit...Texas shaped waffles w/ fresh blueberries, chocolate chips, walnut pieces, dried cranberries as well as spray-top whipped cream.  I liked the oatmeal, several choices of Greek-style yogurt as well as skim through whole milk. 
+I misplaced my glasses on the 2nd day of our stay; thankfully the petite (very cheerful) young lady at the reception desk quickly found several optometrists w/in 2 miles of the hotel. 
+My glasses were made by midday. 
+**The hotel provides a shuttle which will take guests w/in, iirc, 3 miles.**
+I d/N use this service but was so grateful it was available.
+FWIW,  a "3-mile" radius does include the Galleria shopping area. 
+My son really liked the work-out room and used it daily.
+................................................................................
+The only negative parts of our 5 day stay?  The security guard, who VERY regularly patrols the hotel interior and parking areas, let the exterior door bang shut at his every exit.
+Also, a guest set off the fire alarm one evening; I'm glad there's a piercing alarm in every room and...We've stayed in several Marriott Towne Place Suites in the last year, all with the same design; closet and desk/table/workspace designed by the Container Store--this can be a lifesaver if you're trying to get a kid to work on his class project or do some work yourself. The design provides electric connections/charging ports throughout the room; the wifi is flawless. My son enjoyed the 'usuals'; eggs, sausage, bagels, fresh fruit...Texas shaped waffles w/ fresh blueberries, chocolate chips, walnut pieces, dried cranberries as well as spray-top whipped cream.  I liked the oatmeal, several choices of Greek-style yogurt as well as skim through whole milk. I misplaced my glasses on the 2nd day of our stay; thankfully the petite (very cheerful) young lady at the reception desk quickly found several optometrists w/in 2 miles of the hotel. My glasses were made by midday. **The hotel provides a shuttle which will take guests w/in, iirc, 3 miles.**I d/N use this service but was so grateful it was available.FWIW,  a "3-mile" radius does include the Galleria shopping area. My son really liked the work-out room and used it daily.................................................................................The only negative parts of our 5 day stay?  The security guard, who VERY regularly patrols the hotel interior and parking areas, let the exterior door bang shut at his every exit.Also, a guest set off the fire alarm one evening; I'm glad there's a piercing alarm in every room and all the hallways but I'm even happier we were next to an exit and able to get out quickly.  In summary, we enjoyed our stay but with construction in the area (a huge Walmart with all that entails), a noticeable security detail, and loud guests, we were not totally comfortable. Just a note--not a complaint--the TownePlace Suites in Galveston has a heated pool, which is great during the holidays.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Marisol R, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>We've stayed in several Marriott Towne Place Suites in the last year, all with the same design; closet and desk/table/workspace designed by the Container Store--this can be a lifesaver if you're trying to get a kid to work on his class project or do some work yourself. 
+The design provides electric connections/charging ports throughout the room; the wifi is flawless. 
+My son enjoyed the 'usuals'; eggs, sausage, bagels, fresh fruit...Texas shaped waffles w/ fresh blueberries, chocolate chips, walnut pieces, dried cranberries as well as spray-top whipped cream.  I liked the oatmeal, several choices of Greek-style yogurt as well as skim through whole milk. 
+I misplaced my glasses on the 2nd day of our stay; thankfully the petite (very cheerful) young lady at the reception desk quickly found several optometrists w/in 2 miles of the hotel. 
+My glasses were made by midday. 
+**The hotel provides a shuttle which will take guests w/in, iirc, 3 miles.**
+I d/N use this service but was so grateful it was available.
+FWIW,  a "3-mile" radius does include the Galleria shopping area. 
+My son really liked the work-out room and used it daily.
+................................................................................
+The only negative parts of our 5 day stay?  The security guard, who VERY regularly patrols the hotel interior and parking areas, let the exterior door bang shut at his every exit.
+Also, a guest set off the fire alarm one evening; I'm glad there's a piercing alarm in every room and...We've stayed in several Marriott Towne Place Suites in the last year, all with the same design; closet and desk/table/workspace designed by the Container Store--this can be a lifesaver if you're trying to get a kid to work on his class project or do some work yourself. The design provides electric connections/charging ports throughout the room; the wifi is flawless. My son enjoyed the 'usuals'; eggs, sausage, bagels, fresh fruit...Texas shaped waffles w/ fresh blueberries, chocolate chips, walnut pieces, dried cranberries as well as spray-top whipped cream.  I liked the oatmeal, several choices of Greek-style yogurt as well as skim through whole milk. I misplaced my glasses on the 2nd day of our stay; thankfully the petite (very cheerful) young lady at the reception desk quickly found several optometrists w/in 2 miles of the hotel. My glasses were made by midday. **The hotel provides a shuttle which will take guests w/in, iirc, 3 miles.**I d/N use this service but was so grateful it was available.FWIW,  a "3-mile" radius does include the Galleria shopping area. My son really liked the work-out room and used it daily.................................................................................The only negative parts of our 5 day stay?  The security guard, who VERY regularly patrols the hotel interior and parking areas, let the exterior door bang shut at his every exit.Also, a guest set off the fire alarm one evening; I'm glad there's a piercing alarm in every room and all the hallways but I'm even happier we were next to an exit and able to get out quickly.  In summary, we enjoyed our stay but with construction in the area (a huge Walmart with all that entails), a noticeable security detail, and loud guests, we were not totally comfortable. Just a note--not a complaint--the TownePlace Suites in Galveston has a heated pool, which is great during the holidays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r535105692-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535105692</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent value </t>
+  </si>
+  <si>
+    <t>We stayed here for two nights before returning to the UK. Fantastic room has small kitchenette with hob, sink, dishwasher, fridge freezer and crockery etc. Good breakfast buffet with a small but adequate range of hot and cold foods.Room kitted out for business and leisure alike. Plenty of power outlets, flat screen tv and free Wi-Fi in room.Wall Mart and various food outlets next door.Close to IAH airport and 30 mins from Nasa.Very helpful staff. Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights before returning to the UK. Fantastic room has small kitchenette with hob, sink, dishwasher, fridge freezer and crockery etc. Good breakfast buffet with a small but adequate range of hot and cold foods.Room kitted out for business and leisure alike. Plenty of power outlets, flat screen tv and free Wi-Fi in room.Wall Mart and various food outlets next door.Close to IAH airport and 30 mins from Nasa.Very helpful staff. Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r532985212-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532985212</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Dishonest Management</t>
+  </si>
+  <si>
+    <t>After driving all day, I arrived and I was told even though I had a reservation and a confirmation number, they would charge me twice as much as my reservation($210 vs 105) since I did not have the paper work I used to make the reservation.  If I did not like it I could go somewhere else.  Room was clean, but small.  Glasses had lipstick and grease on them.  Breakfast good..MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Marisol R, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>After driving all day, I arrived and I was told even though I had a reservation and a confirmation number, they would charge me twice as much as my reservation($210 vs 105) since I did not have the paper work I used to make the reservation.  If I did not like it I could go somewhere else.  Room was clean, but small.  Glasses had lipstick and grease on them.  Breakfast good..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r519718469-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519718469</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Roaches and Dishonest Executive Team</t>
+  </si>
+  <si>
+    <t>Found a gigantic ROACH in my room. Requested to change my room and mailed the General Manager to disinfect my new room.Got ignored and found ANOTHER ROACH in my new room a few days later. Asked the front desk more than three times for a reply from the general manager and got completely ignored.Later contacted Marriott Care and the GENERAL MANAGER LIED to them that she left a voice message to my phone but never got my reply back. The thing is I didn't even enable the voice mail function on my phone!It would be a nice place to stay if there's no roaches and dishonest executive team in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Alberto H, Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Found a gigantic ROACH in my room. Requested to change my room and mailed the General Manager to disinfect my new room.Got ignored and found ANOTHER ROACH in my new room a few days later. Asked the front desk more than three times for a reply from the general manager and got completely ignored.Later contacted Marriott Care and the GENERAL MANAGER LIED to them that she left a voice message to my phone but never got my reply back. The thing is I didn't even enable the voice mail function on my phone!It would be a nice place to stay if there's no roaches and dishonest executive team in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r497785534-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497785534</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>We were duped by the area indicated in the title of this extended stay hotel. The title says Galleria Area. Now you need to know that the Galleria Area is the fancy shopping district of Houston. It's very upscale. We stayed for 23 nights in this hotel. We were promised scrambled eggs and bacon and a nice quiet comfortable sleep. Nothing could have been further from the truth. Every morning there was the same weird microwaved "fried" eggs and turkey or pork sausage. Never scrambled eggs or bacon. The same crappy food every morning. No variation at all. Shame on them. 
+The beds were hard as a rock. No "Heavenly Beds" happening at this hotel. The room air conditioner had such a humidity problem I had to buy Damp-Rid and hang them all over the apartment. Forget sleeping.... The thin walls and lack of re-inforced glass made the highway noises sound like they were in my room.  Room had a wine key included with the "fully stocked" kitchen (no baking trays either) but no wine glasses. I was told they don't stick them in this Marriott. Really? At this supposedly fancy Galleria hotel??!!  
+Did I mention our fabulous location? Walmart, Sam's Club, Chic-fil-a, and other fast-food joints are the next-door-neighbors of this "upscale" hotel. Ugh. This hotel has no right saying it is Galleria Area. It is not fancy, upscale, or near the shopping district. It is in a very...We were duped by the area indicated in the title of this extended stay hotel. The title says Galleria Area. Now you need to know that the Galleria Area is the fancy shopping district of Houston. It's very upscale. We stayed for 23 nights in this hotel. We were promised scrambled eggs and bacon and a nice quiet comfortable sleep. Nothing could have been further from the truth. Every morning there was the same weird microwaved "fried" eggs and turkey or pork sausage. Never scrambled eggs or bacon. The same crappy food every morning. No variation at all. Shame on them. The beds were hard as a rock. No "Heavenly Beds" happening at this hotel. The room air conditioner had such a humidity problem I had to buy Damp-Rid and hang them all over the apartment. Forget sleeping.... The thin walls and lack of re-inforced glass made the highway noises sound like they were in my room.  Room had a wine key included with the "fully stocked" kitchen (no baking trays either) but no wine glasses. I was told they don't stick them in this Marriott. Really? At this supposedly fancy Galleria hotel??!!  Did I mention our fabulous location? Walmart, Sam's Club, Chic-fil-a, and other fast-food joints are the next-door-neighbors of this "upscale" hotel. Ugh. This hotel has no right saying it is Galleria Area. It is not fancy, upscale, or near the shopping district. It is in a very shady and scary area. I felt unsafe the entire time and will never recommend it or stay here again. On a positive note there are two things: 1. The hotel staff is very friendly. While the hotel is run horribly, at least the staff is nice. 2. The hotel is brand new.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We were duped by the area indicated in the title of this extended stay hotel. The title says Galleria Area. Now you need to know that the Galleria Area is the fancy shopping district of Houston. It's very upscale. We stayed for 23 nights in this hotel. We were promised scrambled eggs and bacon and a nice quiet comfortable sleep. Nothing could have been further from the truth. Every morning there was the same weird microwaved "fried" eggs and turkey or pork sausage. Never scrambled eggs or bacon. The same crappy food every morning. No variation at all. Shame on them. 
+The beds were hard as a rock. No "Heavenly Beds" happening at this hotel. The room air conditioner had such a humidity problem I had to buy Damp-Rid and hang them all over the apartment. Forget sleeping.... The thin walls and lack of re-inforced glass made the highway noises sound like they were in my room.  Room had a wine key included with the "fully stocked" kitchen (no baking trays either) but no wine glasses. I was told they don't stick them in this Marriott. Really? At this supposedly fancy Galleria hotel??!!  
+Did I mention our fabulous location? Walmart, Sam's Club, Chic-fil-a, and other fast-food joints are the next-door-neighbors of this "upscale" hotel. Ugh. This hotel has no right saying it is Galleria Area. It is not fancy, upscale, or near the shopping district. It is in a very...We were duped by the area indicated in the title of this extended stay hotel. The title says Galleria Area. Now you need to know that the Galleria Area is the fancy shopping district of Houston. It's very upscale. We stayed for 23 nights in this hotel. We were promised scrambled eggs and bacon and a nice quiet comfortable sleep. Nothing could have been further from the truth. Every morning there was the same weird microwaved "fried" eggs and turkey or pork sausage. Never scrambled eggs or bacon. The same crappy food every morning. No variation at all. Shame on them. The beds were hard as a rock. No "Heavenly Beds" happening at this hotel. The room air conditioner had such a humidity problem I had to buy Damp-Rid and hang them all over the apartment. Forget sleeping.... The thin walls and lack of re-inforced glass made the highway noises sound like they were in my room.  Room had a wine key included with the "fully stocked" kitchen (no baking trays either) but no wine glasses. I was told they don't stick them in this Marriott. Really? At this supposedly fancy Galleria hotel??!!  Did I mention our fabulous location? Walmart, Sam's Club, Chic-fil-a, and other fast-food joints are the next-door-neighbors of this "upscale" hotel. Ugh. This hotel has no right saying it is Galleria Area. It is not fancy, upscale, or near the shopping district. It is in a very shady and scary area. I felt unsafe the entire time and will never recommend it or stay here again. On a positive note there are two things: 1. The hotel staff is very friendly. While the hotel is run horribly, at least the staff is nice. 2. The hotel is brand new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r472984415-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472984415</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Get away for few days</t>
+  </si>
+  <si>
+    <t>this hotel is new and was extremely clean, there is a small kitchenette and workspace area to do work and our view was chic-fill-a, there is a Wal-Mart and a Starbucks next door.  if I have to stay in the area again I will definitely go back to this towneplace suites.  Staff was professional and very helpful.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r466645246-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466645246</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>A new place - pretty standard - hard bed</t>
+  </si>
+  <si>
+    <t>My wife and I spent one night here.  It was...fine.  It is a new place so all of the furniture and carpet and fittings are all nice.  A pretty comfortable room with decent room.  Some clever furniture pieces (a little table slides under the desk..ottoman has a wooden piece so it can be used as a coffee table or ottoman).  Shower had a nice Speakman shower head (nice).  We had one complaint - the bed was hard as a rock - one of the hardest we've ever (not) slept on.  The fitted sheet kept popping off all during the night as well.Typical breakfast buffet - waffle maker, bagels, cereal, etc.  Wife said yoghurt was not cold.It's hard to get out of the parking lot.  They have built a lot of stores and restaurants around, and a Sam's is across the street.  It can be difficult to cross trafficMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My wife and I spent one night here.  It was...fine.  It is a new place so all of the furniture and carpet and fittings are all nice.  A pretty comfortable room with decent room.  Some clever furniture pieces (a little table slides under the desk..ottoman has a wooden piece so it can be used as a coffee table or ottoman).  Shower had a nice Speakman shower head (nice).  We had one complaint - the bed was hard as a rock - one of the hardest we've ever (not) slept on.  The fitted sheet kept popping off all during the night as well.Typical breakfast buffet - waffle maker, bagels, cereal, etc.  Wife said yoghurt was not cold.It's hard to get out of the parking lot.  They have built a lot of stores and restaurants around, and a Sam's is across the street.  It can be difficult to cross trafficMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r458794117-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458794117</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>great location for Galleria activities</t>
+  </si>
+  <si>
+    <t>king bed suite, ground floor, relatively new property, very near highways and Galleria sites. good breakfast, excellent staff in the mornings, great shuttle driver in evenings. convenient amenities in the room; big fridge, microwave, etc. big closet. several soft towels. small sofa, 32" flatscreen viewable from sofa &amp; bed. small exercise room on ground floor. small pool outside. near many restaurants, shopping, churches.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r458570798-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458570798</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Clue: Next to a Walmart</t>
+  </si>
+  <si>
+    <t>That about sums it up ^My husband and I flew to Houston from Boston and stayed one night at this hotel. We are Marriott Rewards Members and so we chose to stay in a Marriott property when we flew in town for the Super Bowl.    This would not have been my first choice. Aside from my prejudices about the location, and the antics of the losing team's fans in the lobby late night, I was displeased that while I was trying to quite clearly avoid a lurking stranger in the lobby, the young girl at from the front desk came over, gave me my room key and told me which room I was staying in.  Very unprofessional.  That same stranger was pretty hammered and making a racket outside our room at 2am.  Not cool.Overall, I would not stay here again.  I did not eat here just had bad coffee. My husband did have breakfast and said it was seriously lacking.  To be fair, the staff was kind and would do well with some training and the rooms were clean, though dated.  The water pressure, fantastic.  :)Average at best.  I say if you're in that area try the Galleria.  When it's not the Super Bowl - they have better hotels that should be available near some great shopping and restaurants.  MoreShow less</t>
+  </si>
+  <si>
+    <t>That about sums it up ^My husband and I flew to Houston from Boston and stayed one night at this hotel. We are Marriott Rewards Members and so we chose to stay in a Marriott property when we flew in town for the Super Bowl.    This would not have been my first choice. Aside from my prejudices about the location, and the antics of the losing team's fans in the lobby late night, I was displeased that while I was trying to quite clearly avoid a lurking stranger in the lobby, the young girl at from the front desk came over, gave me my room key and told me which room I was staying in.  Very unprofessional.  That same stranger was pretty hammered and making a racket outside our room at 2am.  Not cool.Overall, I would not stay here again.  I did not eat here just had bad coffee. My husband did have breakfast and said it was seriously lacking.  To be fair, the staff was kind and would do well with some training and the rooms were clean, though dated.  The water pressure, fantastic.  :)Average at best.  I say if you're in that area try the Galleria.  When it's not the Super Bowl - they have better hotels that should be available near some great shopping and restaurants.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r444021239-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444021239</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Lovely Family Hotel</t>
+  </si>
+  <si>
+    <t>We were in town for the SWAC Championship Game. My husband and I stayed in a two bedroom suite with my daughters and their children. I liked the idea of a kitchen in the room. Because we were able to feed the whole family on a budget. The staff was very friendly and helpful. We will definitely stay again when in the Houston area!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r427594610-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427594610</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Our Favorite spot in Houston</t>
+  </si>
+  <si>
+    <t>Great customer service, clean and very comfortable beds.  The room and the amenities are second to none. The location is perfect and convenient allowing quick access to major freeways.  Karla has always been incredible along with the other staff including the maintenance staff. t's our #1 choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Great customer service, clean and very comfortable beds.  The room and the amenities are second to none. The location is perfect and convenient allowing quick access to major freeways.  Karla has always been incredible along with the other staff including the maintenance staff. t's our #1 choiceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r427450014-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427450014</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Get more than you pay for</t>
+  </si>
+  <si>
+    <t>Your room will amaze you that everything you can want is in your room.  It has a complete kitchenette with full size refrigerator. The furniture is designed to give many uses (desk, couch , extra table, etc.) yet store neatly out of the way. Wifi and movie channels are included.  Has an excellent free breakfast.  Best for the money and very friendly employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Your room will amaze you that everything you can want is in your room.  It has a complete kitchenette with full size refrigerator. The furniture is designed to give many uses (desk, couch , extra table, etc.) yet store neatly out of the way. Wifi and movie channels are included.  Has an excellent free breakfast.  Best for the money and very friendly employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r423316347-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423316347</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Nice place for the night</t>
+  </si>
+  <si>
+    <t>I like this place because it is quiet and friendly. It was easy to get to and it is just off the expressway. Lots of places to eat and to shop. The place is clean and I like the small refrigerator and stove. This is a little smaller than other town place suites but it is still a good place to sleep and rest. MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>I like this place because it is quiet and friendly. It was easy to get to and it is just off the expressway. Lots of places to eat and to shop. The place is clean and I like the small refrigerator and stove. This is a little smaller than other town place suites but it is still a good place to sleep and rest. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r413690311-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413690311</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>NICE SUITES</t>
+  </si>
+  <si>
+    <t>New hotel, suites well equipped with stove, fridge and microwave. Spacious, clean bathroom. Comfortable sofabed. Good service from personnel. Located at five minutes by car from the Galleria mall and at a 100 meters from Walmart.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>New hotel, suites well equipped with stove, fridge and microwave. Spacious, clean bathroom. Comfortable sofabed. Good service from personnel. Located at five minutes by car from the Galleria mall and at a 100 meters from Walmart.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r405928178-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405928178</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>A great Hotel</t>
+  </si>
+  <si>
+    <t>A great hotel in a great location!! Including a great staff and wonderful breakfast! Rooms are large and clean! With full kitchen too!  Families will enjoy the stay! Close to Galleria and Museums too! We will be back soon!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r405217851-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>405217851</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Convenient, Clean and Pleasant New Hotel</t>
+  </si>
+  <si>
+    <t>Me and my family stayed at this hotel for twelve days in summer. The hotel is newly constructed in an area where there is new construction all around. There is a new Micro Center next door, a Pollo Loco, Starbucks, AT&amp;T and Walmart all within literally less than a minute walk from the hotel. All of those businesses are also new. A Chick Fill A is being constructed next door. We booked the two bedroom suite and was not disappointed. Two full bedrooms with queen size beds, a living room with pull out sofa-bed and a full kitchen. Room cleaning service was excellent. The staff was very helpful particularly Karla who went above and beyond on every occasion we interacted with her. She epitomizes customer service. There is a pool and facilities for grilling. Loved the self service 24hr laundry. Breakfast was included but was a little on the simple side. The convenience of location cannot be overstated. Hotel is less than a minute drive from a freeway which made travel very easy. Further, it is two minutes drive to the Galleria Mall and Westheimer but without the Westheimer traffic. Wonderful place. Will definitely stay agin when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family stayed at this hotel for twelve days in summer. The hotel is newly constructed in an area where there is new construction all around. There is a new Micro Center next door, a Pollo Loco, Starbucks, AT&amp;T and Walmart all within literally less than a minute walk from the hotel. All of those businesses are also new. A Chick Fill A is being constructed next door. We booked the two bedroom suite and was not disappointed. Two full bedrooms with queen size beds, a living room with pull out sofa-bed and a full kitchen. Room cleaning service was excellent. The staff was very helpful particularly Karla who went above and beyond on every occasion we interacted with her. She epitomizes customer service. There is a pool and facilities for grilling. Loved the self service 24hr laundry. Breakfast was included but was a little on the simple side. The convenience of location cannot be overstated. Hotel is less than a minute drive from a freeway which made travel very easy. Further, it is two minutes drive to the Galleria Mall and Westheimer but without the Westheimer traffic. Wonderful place. Will definitely stay agin when in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r377179693-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377179693</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Rooms great - staff not so much....</t>
+  </si>
+  <si>
+    <t>It's as nice as a new car.  Rooms are in great shape, nicely appointed and kept celan for the most part.  The Wi-Fi is fantastically fast.  I wish I could have provided a 4 or 5 on my rating, but given the newness of the hotel I expected a little more from the sheets on the bed.  During my long term stay each sheet change brought a new pilled and uncomfortable fitted sheet.  This was easily corrected with the extra sheet for the fold out bed, but you would think housekeeping at a Marriott property would be on top of the linen situation.  Additionally, the staff seems quite clueless. On several occasions, my room key needed to be rekeyed. And on my final day when I asked for a late check out my key was deactivated.  Of course, this is a big problem when you are trying to gain access to a locked building (back doors) and the staff seem utter out of it when I keep knocking to get their attention.  Plus there is nothing like arriving at the hotel after work to find yourself again locked out of your room and then being told that your room is empty - you stuff just not there anymore.  I guess this is what happens when you don't train your staff very well on Marriott standards.  This is obviously not a Marriott owned property!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>It's as nice as a new car.  Rooms are in great shape, nicely appointed and kept celan for the most part.  The Wi-Fi is fantastically fast.  I wish I could have provided a 4 or 5 on my rating, but given the newness of the hotel I expected a little more from the sheets on the bed.  During my long term stay each sheet change brought a new pilled and uncomfortable fitted sheet.  This was easily corrected with the extra sheet for the fold out bed, but you would think housekeeping at a Marriott property would be on top of the linen situation.  Additionally, the staff seems quite clueless. On several occasions, my room key needed to be rekeyed. And on my final day when I asked for a late check out my key was deactivated.  Of course, this is a big problem when you are trying to gain access to a locked building (back doors) and the staff seem utter out of it when I keep knocking to get their attention.  Plus there is nothing like arriving at the hotel after work to find yourself again locked out of your room and then being told that your room is empty - you stuff just not there anymore.  I guess this is what happens when you don't train your staff very well on Marriott standards.  This is obviously not a Marriott owned property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r376857265-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376857265</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly good hotel!</t>
+  </si>
+  <si>
+    <t>I was surprised by the quality of this hotel. Good location, excellent infrastructure and services for a reasonable fee. New rooms, confortable bed, cleaning every day, good kitchen and appliances for those who are staying for a longer period. A good medium size bathroom and there is also office space for those traveling for business. Breakfast included with the basic needs to start the day. Employees were always gentle and available to help. There is also a gym, laundry room and a small pool, but I didn´t have the time to try out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>I was surprised by the quality of this hotel. Good location, excellent infrastructure and services for a reasonable fee. New rooms, confortable bed, cleaning every day, good kitchen and appliances for those who are staying for a longer period. A good medium size bathroom and there is also office space for those traveling for business. Breakfast included with the basic needs to start the day. Employees were always gentle and available to help. There is also a gym, laundry room and a small pool, but I didn´t have the time to try out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r364879602-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364879602</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Highly recommend</t>
+  </si>
+  <si>
+    <t>Every staff member we encountered was pleasant and helpful. The rooms and common areas were spotless and inviting. The hotel is in a great location. It is convenient to restaurants and shopping. We would absolutely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r360181547-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360181547</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Great new Hotel</t>
+  </si>
+  <si>
+    <t>I decided to try out the new hotel when visiting Houston this last time and boy was I pleasantly surprised. From the moment we checked in to the moment we left was fabulous. The rooms are very nice and modern and the beds are comfy and it was quiet. Nice little kitchen area and a desk and a couch with two different kinds of tables to utilize a laptop with. Bathroom was a bit small with a small counter space, but it did have drawers to help with excess stuff if needed. No Internet issues. The breakfast buffet was nice. Plenty of options and everything seemed fresh. There is a Sams club across the street and a Walmart directly behind the hotel, so if you need anything you can walk. It seems to be an area that is building up. It was an easy commute to the Medical District with limited traffic if you go down Rice blvd instead of the freeway. It was overall a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I decided to try out the new hotel when visiting Houston this last time and boy was I pleasantly surprised. From the moment we checked in to the moment we left was fabulous. The rooms are very nice and modern and the beds are comfy and it was quiet. Nice little kitchen area and a desk and a couch with two different kinds of tables to utilize a laptop with. Bathroom was a bit small with a small counter space, but it did have drawers to help with excess stuff if needed. No Internet issues. The breakfast buffet was nice. Plenty of options and everything seemed fresh. There is a Sams club across the street and a Walmart directly behind the hotel, so if you need anything you can walk. It seems to be an area that is building up. It was an easy commute to the Medical District with limited traffic if you go down Rice blvd instead of the freeway. It was overall a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r355918450-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355918450</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Shop and Relax</t>
+  </si>
+  <si>
+    <t>I usually stay at another hotel on the other side of the freeway.  When I called, my usual hotel was booked.  I looked for a similar place (kitchen and accepting of pets) in the vicinity.  I found TownePlace.  I am soooooo happy I stayed at this hotel.  It was great.  For me, my travels, short or long, are all about service, and this hotel delivered.  From the moment I arrived, the young lady at the desk was so polite and helpful.  I arrived an hour early and was immediately checked in to my room.  After about an hour of settling in, the young lady knocked on my door and had treats for my two pets.  It is this attention to detail that makes the difference.  Additionally, I got locked out of the hotel because somehow the key was demagnetized.  The young lady at the desk quickly opened the door when I showed her my key and helped me get another key for my room.  I was very happy staying here.  It is one of those places where you can stay for several weeks just shopping and relaxing.  Thank you Marriott for making my short trip a great one.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I usually stay at another hotel on the other side of the freeway.  When I called, my usual hotel was booked.  I looked for a similar place (kitchen and accepting of pets) in the vicinity.  I found TownePlace.  I am soooooo happy I stayed at this hotel.  It was great.  For me, my travels, short or long, are all about service, and this hotel delivered.  From the moment I arrived, the young lady at the desk was so polite and helpful.  I arrived an hour early and was immediately checked in to my room.  After about an hour of settling in, the young lady knocked on my door and had treats for my two pets.  It is this attention to detail that makes the difference.  Additionally, I got locked out of the hotel because somehow the key was demagnetized.  The young lady at the desk quickly opened the door when I showed her my key and helped me get another key for my room.  I was very happy staying here.  It is one of those places where you can stay for several weeks just shopping and relaxing.  Thank you Marriott for making my short trip a great one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r353438081-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353438081</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Good location near Westheimer</t>
+  </si>
+  <si>
+    <t>Stayed here in early February 2016.  Staff was very courteous and made a point of trying to greet guests by name as they passed the front desk -- nice touch.   Room came with breakfast buffet which is was a little below average for others in the Marriott chain.  Not much in the way of choice of food and the most popular item (waffles) took about a 30 minute wait to get to use the machine.   WalMart is directly next door (walkable) for any grocery needs.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r348944782-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348944782</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Mini get away...</t>
+  </si>
+  <si>
+    <t>The hotel and accommodations were great and the staff was excellent as well. I would definitely stay at this property again . The location was great and there was easy access to shopping, restaurants as well as a variety of places for entertainment .MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>The hotel and accommodations were great and the staff was excellent as well. I would definitely stay at this property again . The location was great and there was easy access to shopping, restaurants as well as a variety of places for entertainment .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r345425514-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345425514</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, new hotel</t>
+  </si>
+  <si>
+    <t>This is a typical TownePlace location, but was newly constructed, so everything looks fresh and clean. The desk staff is very courteous and accommodating. During my 3-week stay, my only complaint was due to hot water glitches. (Depending on the time of day, I'd need to run my shower for 10 minutes before it warmed up. I was on the first floor.)This hotel is located a few steps from Walmart. The parking lots are well-lit and Starbucks is within walking distance. The pool is small and unheated and faces the back parking lot. The fitness room is standard; one elliptical machine, two treadmills, free weights, a stationery bike.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>This is a typical TownePlace location, but was newly constructed, so everything looks fresh and clean. The desk staff is very courteous and accommodating. During my 3-week stay, my only complaint was due to hot water glitches. (Depending on the time of day, I'd need to run my shower for 10 minutes before it warmed up. I was on the first floor.)This hotel is located a few steps from Walmart. The parking lots are well-lit and Starbucks is within walking distance. The pool is small and unheated and faces the back parking lot. The fitness room is standard; one elliptical machine, two treadmills, free weights, a stationery bike.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r343207214-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343207214</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>I have greatly appreciated the customer service provided by the front desk staff, maintenance and housekeeping.  I have thoroughly enjoyed my stay and will stay here repeatedly in the future.  I am staying on business and it is the best place in Houston in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>I have greatly appreciated the customer service provided by the front desk staff, maintenance and housekeeping.  I have thoroughly enjoyed my stay and will stay here repeatedly in the future.  I am staying on business and it is the best place in Houston in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r340525445-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340525445</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Not glamorous but comfy</t>
+  </si>
+  <si>
+    <t>Visited last week with my mom and daughter. Our reasons for trying this new hotel were location and need for a full refrigerator. Though we were close, we did not visit the Galleria during this visit. I did visit a few specialty and ethnic grocery stores and needed a real refrigerator with freezer to hold everything before returning home. The mini kitchen was perfect! If we had wanted to visit the Galleria, there was a shuttle bus available. I was surprised because so many hotels are doing away with that amenity. I think it is limited to a 3 mile limit but there are lots of choices in that area. Our stay was clean and quiet. The bed was a little firm for me but fine. Thank goodness for the blackout curtain as the computer store next door had an extremely bright sign glowing at night. Though there are a few businesses around, the hotel feels a bit isolated. GPS is a must for navigating the nearby roads if you are not familiar with Houston. I was initially concerned that there was a small homeless encampment at the underpass about a block away but the hotel had a security guard to monitor the parking lot during the night. It was nice to have breakfast every morning included even if the selection didn't change. This hotel met our needs - nice, not fancy - with kitchen, location, free parking and breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Visited last week with my mom and daughter. Our reasons for trying this new hotel were location and need for a full refrigerator. Though we were close, we did not visit the Galleria during this visit. I did visit a few specialty and ethnic grocery stores and needed a real refrigerator with freezer to hold everything before returning home. The mini kitchen was perfect! If we had wanted to visit the Galleria, there was a shuttle bus available. I was surprised because so many hotels are doing away with that amenity. I think it is limited to a 3 mile limit but there are lots of choices in that area. Our stay was clean and quiet. The bed was a little firm for me but fine. Thank goodness for the blackout curtain as the computer store next door had an extremely bright sign glowing at night. Though there are a few businesses around, the hotel feels a bit isolated. GPS is a must for navigating the nearby roads if you are not familiar with Houston. I was initially concerned that there was a small homeless encampment at the underpass about a block away but the hotel had a security guard to monitor the parking lot during the night. It was nice to have breakfast every morning included even if the selection didn't change. This hotel met our needs - nice, not fancy - with kitchen, location, free parking and breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r340340918-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340340918</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Very comfy with corporate edge</t>
+  </si>
+  <si>
+    <t>Simply amazing .... Home away from home very clean! #NetFlixANDchill all the they staff was welcoming .... The Mannager was very pleasant with the biggest smile!! Housekeeping is the perfection!!! I'll be sure to stay at this location in the future MoreShow less</t>
+  </si>
+  <si>
+    <t>Simply amazing .... Home away from home very clean! #NetFlixANDchill all the they staff was welcoming .... The Mannager was very pleasant with the biggest smile!! Housekeeping is the perfection!!! I'll be sure to stay at this location in the future More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r337095339-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337095339</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>LOTS of room for Improvement!!!</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards member, this is my first time to stay at a TownePlace Suites and it will be my last! The only reasons I choose to stay here is because it was by the Galleria (actually10 minutes away by car) and it is a new property. I made a mistake staying here.
+To start with, upon check-in the area behind the check-in counter was very cluttered and sloppy, like they had hastily opened yesterday...so I asked "How long have you been open." The agent stated 2 months. I would think they could have had time to organize by now? Bad first impression. When you go to the elevators, you find that the carpeted areas in front of the elevators have not even been vacuumed on any floor. Bad second impression!
+Upon getting to room 308, we were exhausted and needed a brief nap before heading to the Galleria. We dropped everything and immediately tried to get a few winks. While laying there, we were kept awake by the family next to us and what sounded like an entire army of elephants that seemed to be trouncing around in their room. The walls are VERY thin, but since it was late afternoon we did not say anything. Upon awaking we headed to the Galleria since it was New Years Day and come to find out they closed early at 7:00 pm. We get back to the room around 7:30...As a Marriott Rewards member, this is my first time to stay at a TownePlace Suites and it will be my last! The only reasons I choose to stay here is because it was by the Galleria (actually10 minutes away by car) and it is a new property. I made a mistake staying here.To start with, upon check-in the area behind the check-in counter was very cluttered and sloppy, like they had hastily opened yesterday...so I asked "How long have you been open." The agent stated 2 months. I would think they could have had time to organize by now? Bad first impression. When you go to the elevators, you find that the carpeted areas in front of the elevators have not even been vacuumed on any floor. Bad second impression!Upon getting to room 308, we were exhausted and needed a brief nap before heading to the Galleria. We dropped everything and immediately tried to get a few winks. While laying there, we were kept awake by the family next to us and what sounded like an entire army of elephants that seemed to be trouncing around in their room. The walls are VERY thin, but since it was late afternoon we did not say anything. Upon awaking we headed to the Galleria since it was New Years Day and come to find out they closed early at 7:00 pm. We get back to the room around 7:30 pm and have a seat o the couch and then notice that the corner of the bedspread has blood or lipstick on it. EEWWW... We call to request a new comforter and they choose instead to put us in a different room on the floor below (room 210). We get settled, and go to get a glass for some wine and notice that the cabinets are dripping with either grease or sprayed soda??? Gross. We decide to lay in bed and watch TV...the TV doesn't work. I didn't call on this because at this point we were settled and didn't want someone in our room at that hour and didn't want to change rooms again. We try to watch a video on our tablet and the afore mentioned family begins their stomping and yelling...except now they are directly above us. We couldn't even hear the program. After an hour of that we did call the front desk and reported the noise as it was going for 11:00 pm. I guess someone went up their because it eventually stopped.If this hotel is brand new and already is not properly cleaned, vacuumed, or maintained I can only imagine what this property will look like in 6 months. YUCKAttention to detail is non-existent at this property. Having never stayed at a TownePlace before I did not know what to expect, not sure if this is normal or not. But I can be sure that I will NEVER give this particular Marriott brand another chance. So sorry that I wasted by Marriott points on a night here...I would have been better off just driving straight home. This was the worst experience I have ever had at any Marriott property...anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards member, this is my first time to stay at a TownePlace Suites and it will be my last! The only reasons I choose to stay here is because it was by the Galleria (actually10 minutes away by car) and it is a new property. I made a mistake staying here.
+To start with, upon check-in the area behind the check-in counter was very cluttered and sloppy, like they had hastily opened yesterday...so I asked "How long have you been open." The agent stated 2 months. I would think they could have had time to organize by now? Bad first impression. When you go to the elevators, you find that the carpeted areas in front of the elevators have not even been vacuumed on any floor. Bad second impression!
+Upon getting to room 308, we were exhausted and needed a brief nap before heading to the Galleria. We dropped everything and immediately tried to get a few winks. While laying there, we were kept awake by the family next to us and what sounded like an entire army of elephants that seemed to be trouncing around in their room. The walls are VERY thin, but since it was late afternoon we did not say anything. Upon awaking we headed to the Galleria since it was New Years Day and come to find out they closed early at 7:00 pm. We get back to the room around 7:30...As a Marriott Rewards member, this is my first time to stay at a TownePlace Suites and it will be my last! The only reasons I choose to stay here is because it was by the Galleria (actually10 minutes away by car) and it is a new property. I made a mistake staying here.To start with, upon check-in the area behind the check-in counter was very cluttered and sloppy, like they had hastily opened yesterday...so I asked "How long have you been open." The agent stated 2 months. I would think they could have had time to organize by now? Bad first impression. When you go to the elevators, you find that the carpeted areas in front of the elevators have not even been vacuumed on any floor. Bad second impression!Upon getting to room 308, we were exhausted and needed a brief nap before heading to the Galleria. We dropped everything and immediately tried to get a few winks. While laying there, we were kept awake by the family next to us and what sounded like an entire army of elephants that seemed to be trouncing around in their room. The walls are VERY thin, but since it was late afternoon we did not say anything. Upon awaking we headed to the Galleria since it was New Years Day and come to find out they closed early at 7:00 pm. We get back to the room around 7:30 pm and have a seat o the couch and then notice that the corner of the bedspread has blood or lipstick on it. EEWWW... We call to request a new comforter and they choose instead to put us in a different room on the floor below (room 210). We get settled, and go to get a glass for some wine and notice that the cabinets are dripping with either grease or sprayed soda??? Gross. We decide to lay in bed and watch TV...the TV doesn't work. I didn't call on this because at this point we were settled and didn't want someone in our room at that hour and didn't want to change rooms again. We try to watch a video on our tablet and the afore mentioned family begins their stomping and yelling...except now they are directly above us. We couldn't even hear the program. After an hour of that we did call the front desk and reported the noise as it was going for 11:00 pm. I guess someone went up their because it eventually stopped.If this hotel is brand new and already is not properly cleaned, vacuumed, or maintained I can only imagine what this property will look like in 6 months. YUCKAttention to detail is non-existent at this property. Having never stayed at a TownePlace before I did not know what to expect, not sure if this is normal or not. But I can be sure that I will NEVER give this particular Marriott brand another chance. So sorry that I wasted by Marriott points on a night here...I would have been better off just driving straight home. This was the worst experience I have ever had at any Marriott property...anywhere.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1296,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1328,1907 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>215</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>228</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_658.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,79 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r611304675-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8806112</t>
+  </si>
+  <si>
+    <t>611304675</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>A hidden gem near the Galleria.. I love Karla at reception</t>
+  </si>
+  <si>
+    <t>The TownePlace Suites Houston Galleria Area is about 1.5 miles away from the Galleria and is a newer property TS property. I've had occasion to stay here a number of times recently and this is my go to property for access to the Bellaire area (super close). Karla is the cute little girl at the reception who is always willing to either upgrade me (due to my Platinum Premier status) or turn the AC way down before I arrive or put me in my favorite suite.. she really is the best!The property isn't really in the Galleria, which is a good thing in a way in that they don't charge the standard $20-$40 for parking but you can get to the Galleria very easily. You can also get to Bellaire easily as well.To be sure, this isn't a luxury hotel (not even close) but the service is first rate, the hotel is clean and the AC in the bedroom of the one bedroom suites works great in the absurd Texas heat.It is easy in and out and I love the service Karla gives me and enjoy staying here and encourage anyone else to as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The TownePlace Suites Houston Galleria Area is about 1.5 miles away from the Galleria and is a newer property TS property. I've had occasion to stay here a number of times recently and this is my go to property for access to the Bellaire area (super close). Karla is the cute little girl at the reception who is always willing to either upgrade me (due to my Platinum Premier status) or turn the AC way down before I arrive or put me in my favorite suite.. she really is the best!The property isn't really in the Galleria, which is a good thing in a way in that they don't charge the standard $20-$40 for parking but you can get to the Galleria very easily. You can also get to Bellaire easily as well.To be sure, this isn't a luxury hotel (not even close) but the service is first rate, the hotel is clean and the AC in the bedroom of the one bedroom suites works great in the absurd Texas heat.It is easy in and out and I love the service Karla gives me and enjoy staying here and encourage anyone else to as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r611287891-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>611287891</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Staff</t>
+  </si>
+  <si>
+    <t>This hotel has some of the nicest staff members I have ever encountered. They were attentive, respectful and made me feel right at home. The room itself was very modern and spacious. Plenty of outlets and USB outlets for all of our devices. This property has some of the fastest WiFi speeds I have ever experienced, looking in at over 100 mpbs. Our room had a smart TV, with easy accessibility to Netflix, Hulu, YouTube, and complimentary HBO Go. The morning breakfast is very tasty. Plenty of hot sunny side up eggs, sausage and a waffle maker. The negative thing I can say is it is right next to a Walmart, which is convenient if you need to shop for something not available on the hotel store, but it is a 24 hour store which had traffic going in and out. You could barely hear anything in the evening. Overall a great hotel for the value. We would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has some of the nicest staff members I have ever encountered. They were attentive, respectful and made me feel right at home. The room itself was very modern and spacious. Plenty of outlets and USB outlets for all of our devices. This property has some of the fastest WiFi speeds I have ever experienced, looking in at over 100 mpbs. Our room had a smart TV, with easy accessibility to Netflix, Hulu, YouTube, and complimentary HBO Go. The morning breakfast is very tasty. Plenty of hot sunny side up eggs, sausage and a waffle maker. The negative thing I can say is it is right next to a Walmart, which is convenient if you need to shop for something not available on the hotel store, but it is a 24 hour store which had traffic going in and out. You could barely hear anything in the evening. Overall a great hotel for the value. We would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r594349939-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594349939</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Wonderful property</t>
+  </si>
+  <si>
+    <t>This hotel is a great choice for the Houston area.  The hotel is clean and well maintained.  Carla at the front desk is wonderful and made me feel extremely welcome after a bad experience at another property.  As I Marriott Gold Member, I was also upgraded to a larger room. The room and bathroom were both spotless.  There is a small pool and bbq area in the back of the hotel and there is a small gym.  Breakfast was included with plenty of choices and there is a lot of seating.  There is a Walmart next door which would be convenient to stock up on groceries if you were staying a while and there is a Starbucks and Chick-Fil-A in this same parking lot.  I would definitely stay here again if I was back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel is a great choice for the Houston area.  The hotel is clean and well maintained.  Carla at the front desk is wonderful and made me feel extremely welcome after a bad experience at another property.  As I Marriott Gold Member, I was also upgraded to a larger room. The room and bathroom were both spotless.  There is a small pool and bbq area in the back of the hotel and there is a small gym.  Breakfast was included with plenty of choices and there is a lot of seating.  There is a Walmart next door which would be convenient to stock up on groceries if you were staying a while and there is a Starbucks and Chick-Fil-A in this same parking lot.  I would definitely stay here again if I was back in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r588076987-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>8806112</t>
   </si>
   <si>
     <t>588076987</t>
@@ -178,9 +241,6 @@
   </si>
   <si>
     <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>Marisol R, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded June 26, 2018</t>
@@ -306,6 +366,65 @@
 Also, a guest set off the fire alarm one evening; I'm glad there's a piercing alarm in every room and...We've stayed in several Marriott Towne Place Suites in the last year, all with the same design; closet and desk/table/workspace designed by the Container Store--this can be a lifesaver if you're trying to get a kid to work on his class project or do some work yourself. The design provides electric connections/charging ports throughout the room; the wifi is flawless. My son enjoyed the 'usuals'; eggs, sausage, bagels, fresh fruit...Texas shaped waffles w/ fresh blueberries, chocolate chips, walnut pieces, dried cranberries as well as spray-top whipped cream.  I liked the oatmeal, several choices of Greek-style yogurt as well as skim through whole milk. I misplaced my glasses on the 2nd day of our stay; thankfully the petite (very cheerful) young lady at the reception desk quickly found several optometrists w/in 2 miles of the hotel. My glasses were made by midday. **The hotel provides a shuttle which will take guests w/in, iirc, 3 miles.**I d/N use this service but was so grateful it was available.FWIW,  a "3-mile" radius does include the Galleria shopping area. My son really liked the work-out room and used it daily.................................................................................The only negative parts of our 5 day stay?  The security guard, who VERY regularly patrols the hotel interior and parking areas, let the exterior door bang shut at his every exit.Also, a guest set off the fire alarm one evening; I'm glad there's a piercing alarm in every room and all the hallways but I'm even happier we were next to an exit and able to get out quickly.  In summary, we enjoyed our stay but with construction in the area (a huge Walmart with all that entails), a noticeable security detail, and loud guests, we were not totally comfortable. Just a note--not a complaint--the TownePlace Suites in Galveston has a heated pool, which is great during the holidays.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r539445669-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539445669</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>fave lodging in my fave big city</t>
+  </si>
+  <si>
+    <t>super proximity to shopping, highways, groceries, ample parking, computer store, Galleria, churches, parks. nice rooms, well maintained, good breakfast, helpful &amp; friendly staff, convenient local shuttle van. multiple stays here, &amp; will return again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>super proximity to shopping, highways, groceries, ample parking, computer store, Galleria, churches, parks. nice rooms, well maintained, good breakfast, helpful &amp; friendly staff, convenient local shuttle van. multiple stays here, &amp; will return again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r536764182-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536764182</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Worse Experience Ever</t>
+  </si>
+  <si>
+    <t>The whole stay started out bad.  I called before I made the reservation and asked if room 106 was available.  We used to stay in this room because it's accessible with a roll in shower which my wife needs.  It was available so I made the reservation and the hotel rep I had on the phone told me she blocked that room and tied it to our reservation.  I called back the next day to confirm it was indeed assigned to our reservation and was assured that it was.
+When we arrived to check in they told me they have that room to someone else.  I told them I confirmed twice with the hotel it was reserved for me.  Her only reply was "sorry" and assigned us an accessible room with a tub which is very hard for my wife to use.  On top of this there is no way to keep the shower curtain in the tub when using the fold down bench so of course we flooded the bathroom.  I went down and asked for extra toes and the front desk woman was pretty rude about me asking for extra towels.
+He room also has a very musty smell and the dishwasher was filthy.  One of the hand towels in the rack was dirty.
+The front desk night person is rude and couldn't care less about service.
+I know I only have Marriott Gold status but I was...The whole stay started out bad.  I called before I made the reservation and asked if room 106 was available.  We used to stay in this room because it's accessible with a roll in shower which my wife needs.  It was available so I made the reservation and the hotel rep I had on the phone told me she blocked that room and tied it to our reservation.  I called back the next day to confirm it was indeed assigned to our reservation and was assured that it was.When we arrived to check in they told me they have that room to someone else.  I told them I confirmed twice with the hotel it was reserved for me.  Her only reply was "sorry" and assigned us an accessible room with a tub which is very hard for my wife to use.  On top of this there is no way to keep the shower curtain in the tub when using the fold down bench so of course we flooded the bathroom.  I went down and asked for extra toes and the front desk woman was pretty rude about me asking for extra towels.He room also has a very musty smell and the dishwasher was filthy.  One of the hand towels in the rack was dirty.The front desk night person is rude and couldn't care less about service.I know I only have Marriott Gold status but I was treated like a bum off the street.  I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Marisol R, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>The whole stay started out bad.  I called before I made the reservation and asked if room 106 was available.  We used to stay in this room because it's accessible with a roll in shower which my wife needs.  It was available so I made the reservation and the hotel rep I had on the phone told me she blocked that room and tied it to our reservation.  I called back the next day to confirm it was indeed assigned to our reservation and was assured that it was.
+When we arrived to check in they told me they have that room to someone else.  I told them I confirmed twice with the hotel it was reserved for me.  Her only reply was "sorry" and assigned us an accessible room with a tub which is very hard for my wife to use.  On top of this there is no way to keep the shower curtain in the tub when using the fold down bench so of course we flooded the bathroom.  I went down and asked for extra toes and the front desk woman was pretty rude about me asking for extra towels.
+He room also has a very musty smell and the dishwasher was filthy.  One of the hand towels in the rack was dirty.
+The front desk night person is rude and couldn't care less about service.
+I know I only have Marriott Gold status but I was...The whole stay started out bad.  I called before I made the reservation and asked if room 106 was available.  We used to stay in this room because it's accessible with a roll in shower which my wife needs.  It was available so I made the reservation and the hotel rep I had on the phone told me she blocked that room and tied it to our reservation.  I called back the next day to confirm it was indeed assigned to our reservation and was assured that it was.When we arrived to check in they told me they have that room to someone else.  I told them I confirmed twice with the hotel it was reserved for me.  Her only reply was "sorry" and assigned us an accessible room with a tub which is very hard for my wife to use.  On top of this there is no way to keep the shower curtain in the tub when using the fold down bench so of course we flooded the bathroom.  I went down and asked for extra toes and the front desk woman was pretty rude about me asking for extra towels.He room also has a very musty smell and the dishwasher was filthy.  One of the hand towels in the rack was dirty.The front desk night person is rude and couldn't care less about service.I know I only have Marriott Gold status but I was treated like a bum off the street.  I will not stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r535105692-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,9 +440,6 @@
     <t>We stayed here for two nights before returning to the UK. Fantastic room has small kitchenette with hob, sink, dishwasher, fridge freezer and crockery etc. Good breakfast buffet with a small but adequate range of hot and cold foods.Room kitted out for business and leisure alike. Plenty of power outlets, flat screen tv and free Wi-Fi in room.Wall Mart and various food outlets next door.Close to IAH airport and 30 mins from Nasa.Very helpful staff. Would recommend.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>We stayed here for two nights before returning to the UK. Fantastic room has small kitchenette with hob, sink, dishwasher, fridge freezer and crockery etc. Good breakfast buffet with a small but adequate range of hot and cold foods.Room kitted out for business and leisure alike. Plenty of power outlets, flat screen tv and free Wi-Fi in room.Wall Mart and various food outlets next door.Close to IAH airport and 30 mins from Nasa.Very helpful staff. Would recommend.More</t>
   </si>
   <si>
@@ -342,9 +458,6 @@
     <t>After driving all day, I arrived and I was told even though I had a reservation and a confirmation number, they would charge me twice as much as my reservation($210 vs 105) since I did not have the paper work I used to make the reservation.  If I did not like it I could go somewhere else.  Room was clean, but small.  Glasses had lipstick and grease on them.  Breakfast good..MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Marisol R, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded October 16, 2017</t>
   </si>
   <si>
@@ -379,6 +492,45 @@
   </si>
   <si>
     <t>Found a gigantic ROACH in my room. Requested to change my room and mailed the General Manager to disinfect my new room.Got ignored and found ANOTHER ROACH in my new room a few days later. Asked the front desk more than three times for a reply from the general manager and got completely ignored.Later contacted Marriott Care and the GENERAL MANAGER LIED to them that she left a voice message to my phone but never got my reply back. The thing is I didn't even enable the voice mail function on my phone!It would be a nice place to stay if there's no roaches and dishonest executive team in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r506599949-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506599949</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Good extended stay hotel</t>
+  </si>
+  <si>
+    <t>It's the staff and service which make a difference.Rooms are clean, sheets are good, beds ok.For the price is great value,Breakfast is included so not moaning about it. But if I was to comment I'd say do away with the fried eggs and sausage , add more fruit , keep the oatmeal and the waffles were good, Texas shaped even.Takeaway places and Walmart a hop away, you have a kitchenette so all good.Pool was brilliant on these midsummer days, the shuttle drivers Lewis and Edwin were great, drop you anywhere within range and pick you up. We had the sweetest concierge Carla, I'd say if you don't want to spend mega bucks but want to be comfortable stay here, cheerstownplace staff MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>It's the staff and service which make a difference.Rooms are clean, sheets are good, beds ok.For the price is great value,Breakfast is included so not moaning about it. But if I was to comment I'd say do away with the fried eggs and sausage , add more fruit , keep the oatmeal and the waffles were good, Texas shaped even.Takeaway places and Walmart a hop away, you have a kitchenette so all good.Pool was brilliant on these midsummer days, the shuttle drivers Lewis and Edwin were great, drop you anywhere within range and pick you up. We had the sweetest concierge Carla, I'd say if you don't want to spend mega bucks but want to be comfortable stay here, cheerstownplace staff More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r499839485-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499839485</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average stay </t>
+  </si>
+  <si>
+    <t>Stayed here a few days. Close to the Galleria Mall. Room was just okay. I would not stay here again as I could find a better alternative. Easy to access with car. Staff was nice. Good lobby area. Easy check-in.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r497785534-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
@@ -445,6 +597,36 @@
     <t>My wife and I spent one night here.  It was...fine.  It is a new place so all of the furniture and carpet and fittings are all nice.  A pretty comfortable room with decent room.  Some clever furniture pieces (a little table slides under the desk..ottoman has a wooden piece so it can be used as a coffee table or ottoman).  Shower had a nice Speakman shower head (nice).  We had one complaint - the bed was hard as a rock - one of the hardest we've ever (not) slept on.  The fitted sheet kept popping off all during the night as well.Typical breakfast buffet - waffle maker, bagels, cereal, etc.  Wife said yoghurt was not cold.It's hard to get out of the parking lot.  They have built a lot of stores and restaurants around, and a Sam's is across the street.  It can be difficult to cross trafficMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r463889364-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463889364</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very new, very clean, and nice hotel. Our master bed suite had a very cute kitchenette and a huge closet. The room is small but nicely situated. It is in a terrible location though. It's next door to a Walmart, behind a chicken place, and also behind an electronic store. If you can overlook the surroundings, it's actually just minutes to from the medical center and the galleria. We booked it again for next weekend. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r461570581-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461570581</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel - A Quick In &amp; Out</t>
+  </si>
+  <si>
+    <t>I arrived late (delayed flights) and had to leave early but I appreciated the professional staff, the immaculately clean room, the convenient (if remote) location, the easy parking, and the incredible quiet of the hotel and its surroundings.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r458794117-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -496,7 +678,37 @@
     <t>We were in town for the SWAC Championship Game. My husband and I stayed in a two bedroom suite with my daughters and their children. I liked the idea of a kitchen in the room. Because we were able to feed the whole family on a budget. The staff was very friendly and helpful. We will definitely stay again when in the Houston area!!</t>
   </si>
   <si>
-    <t>December 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r437101287-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437101287</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest room is clean &amp; organized, granted the hotel is only 1 yr old. Location is good...hotel cleanliness is good...Staff is good...Breakfast is bacon, eggs, turkey sausage, toast, waffle, cereal, juice, yogurt, pretty common breakfast... The hotel is in the middle of an area that is growing which means lots of construction. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r437065275-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437065275</t>
+  </si>
+  <si>
+    <t>Great staff and good location.</t>
+  </si>
+  <si>
+    <t>We stayed at Towneplace Suites for 3 nights last week and enjoyed our stay there. The included breakfast was pretty good and had decent variety which included eggs, Texas shaped waffles, cereals, sausage, toast, muffins, oatmeal and yogurt. The location is pretty convenient and right next to Micro Center if you needed to pick up any electronics. There was a Walmart right next to it as well as a Sam's Club across the street. There is also El Pollo Loco and Cane's within walking distance as well. The rooms were clean but a tad on the small side. We felt they could have made the large closet a bit smaller. This is a newer hotel so we had no worries about bed bugs or cleanliness. We were situated facing the back of the hotel our first night and heard the garbage truck throughout the night and into the early morning hours so we asked to be switched which they more than accommodated. All the staff at the hotel were very nice. Even during the end of the breakfast hours, the staff went around to each table to ask if people needed more food before they closed down which I thought was very considerate of them. I have stayed at Holiday Inn's in the past and they never do that but instead start stashing food away once the time was up. Overall we felt this hotel was a great value and...We stayed at Towneplace Suites for 3 nights last week and enjoyed our stay there. The included breakfast was pretty good and had decent variety which included eggs, Texas shaped waffles, cereals, sausage, toast, muffins, oatmeal and yogurt. The location is pretty convenient and right next to Micro Center if you needed to pick up any electronics. There was a Walmart right next to it as well as a Sam's Club across the street. There is also El Pollo Loco and Cane's within walking distance as well. The rooms were clean but a tad on the small side. We felt they could have made the large closet a bit smaller. This is a newer hotel so we had no worries about bed bugs or cleanliness. We were situated facing the back of the hotel our first night and heard the garbage truck throughout the night and into the early morning hours so we asked to be switched which they more than accommodated. All the staff at the hotel were very nice. Even during the end of the breakfast hours, the staff went around to each table to ask if people needed more food before they closed down which I thought was very considerate of them. I have stayed at Holiday Inn's in the past and they never do that but instead start stashing food away once the time was up. Overall we felt this hotel was a great value and being near Galleria without having to pay the expensive daily parking fees was a big plus. They also had a free shuttle within 3 miles for people that needed it but we did not need it since we had a rental. We never felt unsafe in the area as well. If you want value and comfort, this hotel should suit you just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at Towneplace Suites for 3 nights last week and enjoyed our stay there. The included breakfast was pretty good and had decent variety which included eggs, Texas shaped waffles, cereals, sausage, toast, muffins, oatmeal and yogurt. The location is pretty convenient and right next to Micro Center if you needed to pick up any electronics. There was a Walmart right next to it as well as a Sam's Club across the street. There is also El Pollo Loco and Cane's within walking distance as well. The rooms were clean but a tad on the small side. We felt they could have made the large closet a bit smaller. This is a newer hotel so we had no worries about bed bugs or cleanliness. We were situated facing the back of the hotel our first night and heard the garbage truck throughout the night and into the early morning hours so we asked to be switched which they more than accommodated. All the staff at the hotel were very nice. Even during the end of the breakfast hours, the staff went around to each table to ask if people needed more food before they closed down which I thought was very considerate of them. I have stayed at Holiday Inn's in the past and they never do that but instead start stashing food away once the time was up. Overall we felt this hotel was a great value and...We stayed at Towneplace Suites for 3 nights last week and enjoyed our stay there. The included breakfast was pretty good and had decent variety which included eggs, Texas shaped waffles, cereals, sausage, toast, muffins, oatmeal and yogurt. The location is pretty convenient and right next to Micro Center if you needed to pick up any electronics. There was a Walmart right next to it as well as a Sam's Club across the street. There is also El Pollo Loco and Cane's within walking distance as well. The rooms were clean but a tad on the small side. We felt they could have made the large closet a bit smaller. This is a newer hotel so we had no worries about bed bugs or cleanliness. We were situated facing the back of the hotel our first night and heard the garbage truck throughout the night and into the early morning hours so we asked to be switched which they more than accommodated. All the staff at the hotel were very nice. Even during the end of the breakfast hours, the staff went around to each table to ask if people needed more food before they closed down which I thought was very considerate of them. I have stayed at Holiday Inn's in the past and they never do that but instead start stashing food away once the time was up. Overall we felt this hotel was a great value and being near Galleria without having to pay the expensive daily parking fees was a big plus. They also had a free shuttle within 3 miles for people that needed it but we did not need it since we had a rental. We never felt unsafe in the area as well. If you want value and comfort, this hotel should suit you just fine.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r427594610-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
@@ -571,6 +783,42 @@
     <t>I like this place because it is quiet and friendly. It was easy to get to and it is just off the expressway. Lots of places to eat and to shop. The place is clean and I like the small refrigerator and stove. This is a little smaller than other town place suites but it is still a good place to sleep and rest. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r415919805-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415919805</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Filled My Needs Perfectly</t>
+  </si>
+  <si>
+    <t>I was looking for a low priced hotel near The Galleria Mall for a couple of nights and the Towneplace Suites filled my needs perfectly.  Easy to get to and from, free parking, Walmart and Starbucks nearby.  Rooms were spacious, modern and newly renovated with kitchen area and complimentary Wifi.  Checked in around 1pm and room was ready - another plus.  Complimentary breakfast another bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I was looking for a low priced hotel near The Galleria Mall for a couple of nights and the Towneplace Suites filled my needs perfectly.  Easy to get to and from, free parking, Walmart and Starbucks nearby.  Rooms were spacious, modern and newly renovated with kitchen area and complimentary Wifi.  Checked in around 1pm and room was ready - another plus.  Complimentary breakfast another bonus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r413911380-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413911380</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Hotel was EXCELLENT. Logistics of getting to/from is a nightmare.</t>
+  </si>
+  <si>
+    <t>Trying to get to and from the hotel is a nightmare. Once I arrived everything changed. It is a beautiful hotel with friendly staff. Stephanie was at the front desk with a wonderful smile and charming personality. She was very helpful and made sure I had everything I needed. In my room, I felt at home. All the items from full size refrigerator to cooking utensils and a wonderful bed to sleep in.If traveling to Houston, I would highly recommend this hotel if you have the patience to get to it.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r413690311-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -607,9 +855,6 @@
     <t>A great hotel in a great location!! Including a great staff and wonderful breakfast! Rooms are large and clean! With full kitchen too!  Families will enjoy the stay! Close to Galleria and Museums too! We will be back soon!</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r405217851-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -628,6 +873,48 @@
     <t>Me and my family stayed at this hotel for twelve days in summer. The hotel is newly constructed in an area where there is new construction all around. There is a new Micro Center next door, a Pollo Loco, Starbucks, AT&amp;T and Walmart all within literally less than a minute walk from the hotel. All of those businesses are also new. A Chick Fill A is being constructed next door. We booked the two bedroom suite and was not disappointed. Two full bedrooms with queen size beds, a living room with pull out sofa-bed and a full kitchen. Room cleaning service was excellent. The staff was very helpful particularly Karla who went above and beyond on every occasion we interacted with her. She epitomizes customer service. There is a pool and facilities for grilling. Loved the self service 24hr laundry. Breakfast was included but was a little on the simple side. The convenience of location cannot be overstated. Hotel is less than a minute drive from a freeway which made travel very easy. Further, it is two minutes drive to the Galleria Mall and Westheimer but without the Westheimer traffic. Wonderful place. Will definitely stay agin when in Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r401254548-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401254548</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Great Staff and Hotel</t>
+  </si>
+  <si>
+    <t>The staff was always friendly, helpful and professional.  Hotel was very clean and the rooms were amazing.  Breakfast was the typical hotel breakfast stuff.  We will definitely stay here again when in the Houston area.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r398649781-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398649781</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Great location, love the new facility</t>
+  </si>
+  <si>
+    <t>This is a great location central to everything in Houston.  Close to Rice, close to Galleria, close to downtown, etc.  it is a new facility, which is nice.  The staff was SOOOO friendly.  I was in shock at how helpful they were, especially the morning crew.  The front desk staff and the breakfast crew were just pleasant in the morning and asked where they could help.  Kudos to them.The rooms were nice.  we had a two bedroom suite, and it was wonderful for a family of four.The only downside is the placement of the hotel.  it is next door to a Micro Center, which has a bright colored light all night long.  the hotel had good curtains/light blockers, but it still shone through a bit.  it wasn't bad, but it was a little annoying. I loved that it was next door to a Walmart.  Some may not like this, but I loved walking next door and getting snacks and refreshments.  VERY CONVENIENT!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>This is a great location central to everything in Houston.  Close to Rice, close to Galleria, close to downtown, etc.  it is a new facility, which is nice.  The staff was SOOOO friendly.  I was in shock at how helpful they were, especially the morning crew.  The front desk staff and the breakfast crew were just pleasant in the morning and asked where they could help.  Kudos to them.The rooms were nice.  we had a two bedroom suite, and it was wonderful for a family of four.The only downside is the placement of the hotel.  it is next door to a Micro Center, which has a bright colored light all night long.  the hotel had good curtains/light blockers, but it still shone through a bit.  it wasn't bad, but it was a little annoying. I loved that it was next door to a Walmart.  Some may not like this, but I loved walking next door and getting snacks and refreshments.  VERY CONVENIENT!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r377179693-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -697,6 +984,36 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r364044906-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364044906</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for an MD Anderson trip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for a trip to MD Anderson.  Loved the shuttle that took us directly to the hospital and even took a shortcut to avoid traffic as we were late for our appointment.  It's about a 15 minute ride to the hospital. The hotel was new and the room was super clean and comfortable for our small family of three. Bed was comfortable and the breakfast was great.  The staff here works hard and it shows! Housekeeping and front desk are the definition of excellent customer service.  Whatever management is doing...keep up them the great work!  We appreciated the accommodations and great care during our trip to Houston. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r362933282-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362933282</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Great Final Four Hotel</t>
+  </si>
+  <si>
+    <t>This was a great location and the rooms were brand new and perfect for an extended stay. Front desk was very helpful and breakfast was decent (but there is a Starbucks adjacent!). Location is close to Galleria area and there is a shuttle to that area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r360181547-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -757,30 +1074,57 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r351021685-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351021685</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>The manger n staff was nice my room was clean I love every bit off my stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay was wonderful n the staffs was nice my son love the breakfast n the free Wi-Fi so he can watch nextflix. I wish they had DVD to watch movies we bring ours but its was hard cut there wasn't no place to plug it in to watch Cuz the way they had the TV plug in but it was a nice stay next the Walmart made it easy too I didn't have to drive anywhere Cuz across the street was a Sam </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r348961455-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348961455</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>5 Stars for this category of hotel</t>
+  </si>
+  <si>
+    <t>5 Stars for an "extended stay" property (Residence Inn, TownePlace Suites, etc).PROs:- New property- Nicely appointed, modern decor- Free hot breakfast- Free parking- Free WiFi- Walking distance to Walmart, Starbucks, and a couple fast-food restaurants- Friendly, helpful staff- Full kitchen:  Fridge, stove, microwave, dishwasher- About 1 - 1 1/2 miles to GalleriaCONs:- Not the most attractive area, but it is clearly being developed  -- I felt completely safe, my point is that it is not as attractive as the Galleria- Bathroom is pretty small; the counter space is limitedMoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>5 Stars for an "extended stay" property (Residence Inn, TownePlace Suites, etc).PROs:- New property- Nicely appointed, modern decor- Free hot breakfast- Free parking- Free WiFi- Walking distance to Walmart, Starbucks, and a couple fast-food restaurants- Friendly, helpful staff- Full kitchen:  Fridge, stove, microwave, dishwasher- About 1 - 1 1/2 miles to GalleriaCONs:- Not the most attractive area, but it is clearly being developed  -- I felt completely safe, my point is that it is not as attractive as the Galleria- Bathroom is pretty small; the counter space is limitedMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r348944782-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
   </si>
   <si>
     <t>348944782</t>
   </si>
   <si>
-    <t>02/18/2016</t>
-  </si>
-  <si>
     <t>Mini get away...</t>
   </si>
   <si>
     <t>The hotel and accommodations were great and the staff was excellent as well. I would definitely stay at this property again . The location was great and there was easy access to shopping, restaurants as well as a variety of places for entertainment .MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded February 22, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 22, 2016</t>
-  </si>
-  <si>
     <t>The hotel and accommodations were great and the staff was excellent as well. I would definitely stay at this property again . The location was great and there was easy access to shopping, restaurants as well as a variety of places for entertainment .More</t>
   </si>
   <si>
@@ -833,6 +1177,39 @@
   </si>
   <si>
     <t>I have greatly appreciated the customer service provided by the front desk staff, maintenance and housekeeping.  I have thoroughly enjoyed my stay and will stay here repeatedly in the future.  I am staying on business and it is the best place in Houston in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r343117825-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343117825</t>
+  </si>
+  <si>
+    <t>Absolutely Amazing</t>
+  </si>
+  <si>
+    <t>Wow! I was amazed. They went above and beyond my expectations. It was like staying at a Ritz with a full kitchen (which was needed with the baby). They dropped everything to help me to my room with groceries. They went out of their way to offer me a bib for my son. They are located right next to Walmart which was ultra convenient and the property is so well maintained and decorated it looks brand new. I also love how close they are to McHugh Tea Room which is where I was hosting my best friends bridal shower. I can't say enough great things about this place...about Tamika and the entire staff. Thank you!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! I was amazed. They went above and beyond my expectations. It was like staying at a Ritz with a full kitchen (which was needed with the baby). They dropped everything to help me to my room with groceries. They went out of their way to offer me a bib for my son. They are located right next to Walmart which was ultra convenient and the property is so well maintained and decorated it looks brand new. I also love how close they are to McHugh Tea Room which is where I was hosting my best friends bridal shower. I can't say enough great things about this place...about Tamika and the entire staff. Thank you!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r342857051-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342857051</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>New developing area and hotel</t>
+  </si>
+  <si>
+    <t>New developing area down a ways from Galleria and right by I-59.  I'm a Marriott loyalist but this place exceeded expectations.   New bright hotel and service was better than I get at a JW.   Very impressed.   Front counter on late check in was super friendly gave me a gift bag AND a complementary ice cream that I was perfectly fine for paying for since I hadn't had dinner.   Room was clean and new.   I was late for breakfast but lady cleaning up helped make a waffle for me with no complaints and happy to do so.   Everyone said hello and acknowledged you from maid service to front desk.  Rates are good with it being a new development so highly recommend for high value.   Well run hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>New developing area down a ways from Galleria and right by I-59.  I'm a Marriott loyalist but this place exceeded expectations.   New bright hotel and service was better than I get at a JW.   Very impressed.   Front counter on late check in was super friendly gave me a gift bag AND a complementary ice cream that I was perfectly fine for paying for since I hadn't had dinner.   Room was clean and new.   I was late for breakfast but lady cleaning up helped make a waffle for me with no complaints and happy to do so.   Everyone said hello and acknowledged you from maid service to front desk.  Rates are good with it being a new development so highly recommend for high value.   Well run hotel. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r340525445-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
@@ -903,6 +1280,33 @@
     <t>As a Marriott Rewards member, this is my first time to stay at a TownePlace Suites and it will be my last! The only reasons I choose to stay here is because it was by the Galleria (actually10 minutes away by car) and it is a new property. I made a mistake staying here.
 To start with, upon check-in the area behind the check-in counter was very cluttered and sloppy, like they had hastily opened yesterday...so I asked "How long have you been open." The agent stated 2 months. I would think they could have had time to organize by now? Bad first impression. When you go to the elevators, you find that the carpeted areas in front of the elevators have not even been vacuumed on any floor. Bad second impression!
 Upon getting to room 308, we were exhausted and needed a brief nap before heading to the Galleria. We dropped everything and immediately tried to get a few winks. While laying there, we were kept awake by the family next to us and what sounded like an entire army of elephants that seemed to be trouncing around in their room. The walls are VERY thin, but since it was late afternoon we did not say anything. Upon awaking we headed to the Galleria since it was New Years Day and come to find out they closed early at 7:00 pm. We get back to the room around 7:30...As a Marriott Rewards member, this is my first time to stay at a TownePlace Suites and it will be my last! The only reasons I choose to stay here is because it was by the Galleria (actually10 minutes away by car) and it is a new property. I made a mistake staying here.To start with, upon check-in the area behind the check-in counter was very cluttered and sloppy, like they had hastily opened yesterday...so I asked "How long have you been open." The agent stated 2 months. I would think they could have had time to organize by now? Bad first impression. When you go to the elevators, you find that the carpeted areas in front of the elevators have not even been vacuumed on any floor. Bad second impression!Upon getting to room 308, we were exhausted and needed a brief nap before heading to the Galleria. We dropped everything and immediately tried to get a few winks. While laying there, we were kept awake by the family next to us and what sounded like an entire army of elephants that seemed to be trouncing around in their room. The walls are VERY thin, but since it was late afternoon we did not say anything. Upon awaking we headed to the Galleria since it was New Years Day and come to find out they closed early at 7:00 pm. We get back to the room around 7:30 pm and have a seat o the couch and then notice that the corner of the bedspread has blood or lipstick on it. EEWWW... We call to request a new comforter and they choose instead to put us in a different room on the floor below (room 210). We get settled, and go to get a glass for some wine and notice that the cabinets are dripping with either grease or sprayed soda??? Gross. We decide to lay in bed and watch TV...the TV doesn't work. I didn't call on this because at this point we were settled and didn't want someone in our room at that hour and didn't want to change rooms again. We try to watch a video on our tablet and the afore mentioned family begins their stomping and yelling...except now they are directly above us. We couldn't even hear the program. After an hour of that we did call the front desk and reported the noise as it was going for 11:00 pm. I guess someone went up their because it eventually stopped.If this hotel is brand new and already is not properly cleaned, vacuumed, or maintained I can only imagine what this property will look like in 6 months. YUCKAttention to detail is non-existent at this property. Having never stayed at a TownePlace before I did not know what to expect, not sure if this is normal or not. But I can be sure that I will NEVER give this particular Marriott brand another chance. So sorry that I wasted by Marriott points on a night here...I would have been better off just driving straight home. This was the worst experience I have ever had at any Marriott property...anywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8806112-r336659790-TownePlace_Suites_Houston_Galleria_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336659790</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Nice place away from Galleria traffic but still convenient</t>
+  </si>
+  <si>
+    <t>Relatively new property that felt and smelled new.  Close by and convenient to the Galleria, but away from the heavy traffic.  Close to a Wal-Mart and computer store.  No real close restaurants, but tons are nearby and within easy driving distance.  The rooms are what you would expect.  Towneplace rooms always seem a little smaller than the Residence Inn rooms.  I had a very quiet top floor room.  The staff was friendly and helpful.  Parking is free, which is an exception for the Galleria area ($15-20 per day or more).  This property is a very nice alternative for someone wanting something other than a standard full-service hotel room, reasonably priced rooms, simple free breakfast, free Wi-Fi (faster Wi-Fi free for Gold and Platinum members, quick in/out access, and free parking.  You can shop at either the Galleria or Wal-Mart!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Galleria Area, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Relatively new property that felt and smelled new.  Close by and convenient to the Galleria, but away from the heavy traffic.  Close to a Wal-Mart and computer store.  No real close restaurants, but tons are nearby and within easy driving distance.  The rooms are what you would expect.  Towneplace rooms always seem a little smaller than the Residence Inn rooms.  I had a very quiet top floor room.  The staff was friendly and helpful.  Parking is free, which is an exception for the Galleria area ($15-20 per day or more).  This property is a very nice alternative for someone wanting something other than a standard full-service hotel room, reasonably priced rooms, simple free breakfast, free Wi-Fi (faster Wi-Fi free for Gold and Platinum members, quick in/out access, and free parking.  You can shop at either the Galleria or Wal-Mart!!!!More</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1841,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1446,28 +1850,24 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1483,34 +1883,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1524,7 +1924,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1540,39 +1940,39 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
@@ -1582,14 +1982,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1605,7 +2001,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1614,43 +2010,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1666,58 +2068,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1733,56 +2125,56 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -1798,31 +2190,31 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
@@ -1836,10 +2228,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1855,52 +2251,50 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="O9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
       <c r="Y9" t="s">
         <v>110</v>
       </c>
@@ -1918,54 +2312,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
-        <v>116</v>
-      </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" t="s">
+        <v>92</v>
+      </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1981,48 +2373,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2059,27 +2461,35 @@
         <v>129</v>
       </c>
       <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -2095,7 +2505,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2104,25 +2514,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2136,7 +2546,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2152,7 +2562,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2161,25 +2571,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2190,12 +2600,8 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>143</v>
-      </c>
-      <c r="X14" t="s">
-        <v>144</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
         <v>145</v>
       </c>
@@ -2213,7 +2619,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2222,25 +2628,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2251,14 +2657,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>143</v>
-      </c>
-      <c r="X15" t="s">
-        <v>144</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2274,7 +2676,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2283,43 +2685,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
         <v>158</v>
-      </c>
-      <c r="X16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2335,58 +2739,54 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>161</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>162</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>163</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>164</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>165</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>166</v>
-      </c>
       <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
         <v>5</v>
       </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>158</v>
-      </c>
-      <c r="X17" t="s">
-        <v>159</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -2402,34 +2802,34 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>168</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>169</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>170</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>171</v>
       </c>
-      <c r="L18" t="s">
-        <v>172</v>
-      </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2443,7 +2843,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -2459,48 +2859,52 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
         <v>174</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>175</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>176</v>
       </c>
-      <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s">
-        <v>178</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -2516,56 +2920,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
         <v>180</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>181</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>182</v>
-      </c>
-      <c r="K20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>185</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>186</v>
-      </c>
-      <c r="X20" t="s">
-        <v>187</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -2581,7 +2977,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2590,22 +2986,26 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -2615,14 +3015,10 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>194</v>
-      </c>
-      <c r="X21" t="s">
-        <v>195</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -2638,7 +3034,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2647,45 +3043,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
@@ -2701,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2710,43 +3100,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -2762,7 +3148,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2771,32 +3157,32 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>215</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -2807,7 +3193,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -2823,7 +3209,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2832,43 +3218,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>211</v>
+      </c>
+      <c r="X25" t="s">
+        <v>212</v>
+      </c>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -2884,7 +3270,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2893,25 +3279,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2923,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
@@ -2945,7 +3331,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2954,22 +3340,26 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
@@ -2980,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
@@ -3002,7 +3392,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3011,43 +3401,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="X28" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
@@ -3063,7 +3459,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3072,39 +3468,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>254</v>
-      </c>
-      <c r="X29" t="s">
-        <v>255</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -3120,7 +3522,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3129,43 +3531,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="X30" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
@@ -3181,7 +3589,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3190,45 +3598,1369 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>264</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
         <v>268</v>
       </c>
-      <c r="X31" t="s">
+      <c r="L34" t="s">
         <v>269</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
         <v>270</v>
+      </c>
+      <c r="X34" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J35" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>287</v>
+      </c>
+      <c r="X36" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>295</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>295</v>
+      </c>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s">
+        <v>310</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>318</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>325</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s">
+        <v>318</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>325</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>336</v>
+      </c>
+      <c r="X44" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>325</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>336</v>
+      </c>
+      <c r="X45" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>345</v>
+      </c>
+      <c r="J46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K46" t="s">
+        <v>347</v>
+      </c>
+      <c r="L46" t="s">
+        <v>348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>349</v>
+      </c>
+      <c r="X46" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>358</v>
+      </c>
+      <c r="X47" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>362</v>
+      </c>
+      <c r="J48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s">
+        <v>363</v>
+      </c>
+      <c r="L48" t="s">
+        <v>364</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>318</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>358</v>
+      </c>
+      <c r="X48" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>357</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>358</v>
+      </c>
+      <c r="X49" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>373</v>
+      </c>
+      <c r="J50" t="s">
+        <v>374</v>
+      </c>
+      <c r="K50" t="s">
+        <v>375</v>
+      </c>
+      <c r="L50" t="s">
+        <v>376</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>377</v>
+      </c>
+      <c r="X50" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>380</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" t="s">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s">
+        <v>383</v>
+      </c>
+      <c r="L51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>357</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>377</v>
+      </c>
+      <c r="X51" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" t="s">
+        <v>388</v>
+      </c>
+      <c r="K52" t="s">
+        <v>389</v>
+      </c>
+      <c r="L52" t="s">
+        <v>390</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>357</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>391</v>
+      </c>
+      <c r="X52" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64572</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>399</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>400</v>
+      </c>
+      <c r="X53" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
